--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0011-008 - Validasi BNIMF.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0011-008 - Validasi BNIMF.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AD14F4-EC2D-4A3C-AFDB-77A800944EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CDD567-3BF2-4571-8FF4-A50185E51827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0177" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0011" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
@@ -113,9 +113,6 @@
     <t>Tertarik</t>
   </si>
   <si>
-    <t>DGS-192</t>
-  </si>
-  <si>
     <t>Validasi pada tahapan Follow Up menggunakan User Sales yang Kode Outletnya tidak masuk ke dalam mappingan Cabang BNI Multifinance</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>Leads Prospek NULL 10</t>
+  </si>
+  <si>
+    <t>SCD0011-008</t>
   </si>
 </sst>
 </file>
@@ -590,14 +590,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AM2" sqref="AM2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
@@ -680,31 +680,31 @@
         <v>27</v>
       </c>
       <c r="T1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="66" customHeight="1" x14ac:dyDescent="0.25">
@@ -712,16 +712,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>31</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="10">
         <v>49998</v>
@@ -740,7 +740,7 @@
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>28</v>
@@ -764,23 +764,23 @@
         <v>29</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U2" s="16"/>
       <c r="V2" s="16"/>
       <c r="W2" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X2" s="13"/>
       <c r="Y2" s="13"/>
       <c r="Z2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AB2" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
